--- a/data/Data mensual julio 2023 CON Dsoja listo.xlsx
+++ b/data/Data mensual julio 2023 CON Dsoja listo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4ADD7A-1D80-E44C-B8D9-6920071BCC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F79609-0864-9D41-AD98-BF3AA7AE9F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1840" windowWidth="38400" windowHeight="21600" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
+    <workbookView xWindow="-38400" yWindow="-1340" windowWidth="38400" windowHeight="21100" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="35">
   <si>
     <t>Año</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>Dsoja</t>
-  </si>
-  <si>
-    <t>Promedio mensual 2004 a 2015</t>
   </si>
 </sst>
 </file>
@@ -640,9 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D748D8A8-3F83-DF4A-8DE1-BB2B913EFB46}">
   <dimension ref="A1:W523"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="K482" sqref="K482"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -31747,13 +31742,7 @@
     </row>
     <row r="484" spans="1:23">
       <c r="B484" s="18"/>
-      <c r="G484" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J484" s="9">
-        <f>AVERAGE(J290:J433)</f>
-        <v>10.062083333333334</v>
-      </c>
+      <c r="J484" s="9"/>
       <c r="M484" s="10"/>
     </row>
     <row r="485" spans="1:23">
